--- a/data/dataThongtinHDDCTien_case8.xlsx
+++ b/data/dataThongtinHDDCTien_case8.xlsx
@@ -70,10 +70,10 @@
     <t>Serial</t>
   </si>
   <si>
-    <t>1C22TGT</t>
-  </si>
-  <si>
     <t>5%</t>
+  </si>
+  <si>
+    <t>1C22TBB</t>
   </si>
 </sst>
 </file>
@@ -395,7 +395,7 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -457,7 +457,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
         <v>9</v>
@@ -472,7 +472,7 @@
         <v>12</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/data/dataThongtinHDDCTien_case8.xlsx
+++ b/data/dataThongtinHDDCTien_case8.xlsx
@@ -395,7 +395,7 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
